--- a/Figures and Graphs/Seedling plot descriptions.xlsx
+++ b/Figures and Graphs/Seedling plot descriptions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="69">
   <si>
     <t>Site</t>
   </si>
@@ -102,9 +103,6 @@
   </si>
   <si>
     <t>10-13m</t>
-  </si>
-  <si>
-    <t>10-18m</t>
   </si>
   <si>
     <t>Ochrosia oppositifolia, Cycas micronesica, Macaranga thompsonii</t>
@@ -205,6 +203,15 @@
     <t>Eugenia reinwardtiana, Aglaia mariannensis</t>
   </si>
   <si>
+    <t>Mammea odorata, Aglaia mariannensis, Meiogyne cylindrocarpa, Ochrosia oppositifolia</t>
+  </si>
+  <si>
+    <t>Mammea odorata, Ochrosia oppositifolia, Cycas micronesica, Meiogyne cylindrocarpa</t>
+  </si>
+  <si>
+    <r>
+      <t>8-12m (</t>
+    </r>
     <r>
       <rPr>
         <i/>
@@ -214,7 +221,77 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Ochrosia oppositifolia, Meiogyne cylindrocarpa, Carica papaya</t>
+      <t>Cycas micronesica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3m)</t>
+    </r>
+  </si>
+  <si>
+    <t>Few large, 50-cm-high boulders, &lt;20% exposed red soil, mostly 5-10cm-diameter rocks</t>
+  </si>
+  <si>
+    <t>Mostly 5-10cm-diameter rocks with few large, 50-cm-high boulders, &lt;20% exposed red soil</t>
+  </si>
+  <si>
+    <t>Mostly flat with scattered limestone rocks 10-20 cm in diameter, mixed leaf litter</t>
+  </si>
+  <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>slight downward slope (&lt;5 degrees) towards east</t>
+  </si>
+  <si>
+    <t>60% of ground cover is large rocks &gt;20cm in diameter, some (~20% substrate) exposed red dirt</t>
+  </si>
+  <si>
+    <t>very rocky, loose rocks 10-50cm in diameter, small amounts (~10-15%) of exposed red dirt</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">very rocky, high amount of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eugenia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> leaf litter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ochrosia oppositifolia, Meiogyne cylindrocarpa, (Carica papaya)</t>
     </r>
     <r>
       <rPr>
@@ -249,14 +326,34 @@
     </r>
   </si>
   <si>
-    <t>Mammea odorata, Aglaia mariannensis, Meiogyne cylindrocarpa, Ochrosia oppositifolia</t>
-  </si>
-  <si>
-    <t>Mammea odorata, Ochrosia oppositifolia, Cycas micronesica, Meiogyne cylindrocarpa</t>
-  </si>
-  <si>
-    <r>
-      <t>8-12m (</t>
+    <r>
+      <t>10-18m, (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cycas micronesica </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3m)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9-15m, </t>
     </r>
     <r>
       <rPr>
@@ -277,55 +374,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 3m)</t>
-    </r>
-  </si>
-  <si>
-    <t>Few large, 50-cm-high boulders, &lt;20% exposed red soil, mostly 5-10cm-diameter rocks</t>
-  </si>
-  <si>
-    <t>Mostly 5-10cm-diameter rocks with few large, 50-cm-high boulders, &lt;20% exposed red soil</t>
-  </si>
-  <si>
-    <t>Mostly flat with scattered limestone rocks 10-20 cm in diameter, mixed leaf litter</t>
-  </si>
-  <si>
-    <t>flat</t>
-  </si>
-  <si>
-    <t>slight downward slope (&lt;5 degrees) towards east</t>
-  </si>
-  <si>
-    <t>60% of ground cover is large rocks &gt;20cm in diameter, some (~20% substrate) exposed red dirt</t>
-  </si>
-  <si>
-    <t>very rocky, loose rocks 10-50cm in diameter, small amounts (~10-15%) of exposed red dirt</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">very rocky, high amount of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Eugenia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> leaf litter</t>
-    </r>
+      <t xml:space="preserve"> &lt;3m</t>
+    </r>
+  </si>
+  <si>
+    <t>adult trees</t>
+  </si>
+  <si>
+    <t>avg dbh</t>
+  </si>
+  <si>
+    <t>canopy cover</t>
+  </si>
+  <si>
+    <t>canopy height</t>
   </si>
 </sst>
 </file>
@@ -749,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -779,10 +841,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -830,7 +892,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -853,10 +915,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -868,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -901,10 +963,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -913,10 +975,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -927,10 +989,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -978,7 +1040,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -987,10 +1049,10 @@
         <v>5</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -1001,10 +1063,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -1013,10 +1075,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -1049,10 +1111,10 @@
         <v>4</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -1061,10 +1123,10 @@
         <v>5</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -1075,10 +1137,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -1087,10 +1149,10 @@
         <v>8</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -1110,10 +1172,10 @@
       <c r="B29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="8">
         <v>0.85</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="8">
         <v>0.82</v>
       </c>
     </row>
@@ -1123,10 +1185,10 @@
         <v>4</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -1135,10 +1197,10 @@
         <v>5</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -1149,10 +1211,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -1176,7 +1238,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1197,10 +1259,10 @@
         <v>4</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -1209,10 +1271,10 @@
         <v>5</v>
       </c>
       <c r="C37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -1247,10 +1309,10 @@
         <v>2</v>
       </c>
       <c r="C40" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -1297,10 +1359,10 @@
         <v>1</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -1345,10 +1407,10 @@
         <v>4</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1357,7 +1419,7 @@
         <v>5</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>20</v>
@@ -1367,4 +1429,36 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Figures and Graphs/Seedling plot descriptions.xlsx
+++ b/Figures and Graphs/Seedling plot descriptions.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7930" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="averages" sheetId="2" r:id="rId2"/>
+    <sheet name="indiv trees" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="72">
   <si>
     <t>Site</t>
   </si>
@@ -36,12 +37,6 @@
     <t># adult trees</t>
   </si>
   <si>
-    <t>Canopy cover</t>
-  </si>
-  <si>
-    <t>Approx canopy height</t>
-  </si>
-  <si>
     <t>Species of adult trees</t>
   </si>
   <si>
@@ -84,72 +79,33 @@
     <t>moderate karst, scattered boulders 0.5-m in diameter</t>
   </si>
   <si>
-    <t>7m</t>
-  </si>
-  <si>
     <t>Eugenia reinwardtiana</t>
   </si>
   <si>
     <t>Eugenia reinwardtiana, Meiogyne cylindrocarpa</t>
   </si>
   <si>
-    <t>10-11m</t>
-  </si>
-  <si>
     <t>Ochrosia oppositifolia, Psychotria mariana, Cycas micronesica</t>
   </si>
   <si>
     <t>Ochrosia oppositifolia, Aglaia mariannensis, Meiogyne cylindrocarpa</t>
   </si>
   <si>
-    <t>10-13m</t>
-  </si>
-  <si>
     <t>Ochrosia oppositifolia, Cycas micronesica, Macaranga thompsonii</t>
   </si>
   <si>
     <t>very rocky, no soil visible, rocks from 5 - 50-cm in diameter</t>
   </si>
   <si>
-    <t>14, with DBH 3-4cm</t>
-  </si>
-  <si>
-    <t>10, with DBH 3-4cm, one approx 10 cm</t>
-  </si>
-  <si>
-    <t>8m</t>
-  </si>
-  <si>
-    <t>9-15m</t>
-  </si>
-  <si>
-    <t>12-15m, and a few 3-m-tall trees within plot</t>
-  </si>
-  <si>
-    <t>7-9m</t>
-  </si>
-  <si>
-    <t>9-12m</t>
-  </si>
-  <si>
     <t>Ochrosia oppositifolia</t>
   </si>
   <si>
-    <t>Aglaia mariannensis, Mammea odorata</t>
-  </si>
-  <si>
     <t>slight downward slope (&lt;5 degrees) towards NW</t>
   </si>
   <si>
-    <t>slight slope (&lt;5 degs) downward  towards NE</t>
-  </si>
-  <si>
     <t>in slight depression between towers of karst on north and south sides</t>
   </si>
   <si>
-    <t>8-10m</t>
-  </si>
-  <si>
     <t>Aglaia mariannensis, Cynometra ramiflora, Morinda citrifolia, Macaranga thompsonii, Syzigium thompsonii</t>
   </si>
   <si>
@@ -160,9 +116,6 @@
   </si>
   <si>
     <t>rugged, no soil showing</t>
-  </si>
-  <si>
-    <t>7-8m</t>
   </si>
   <si>
     <t>Meiogyne cylindrocarpa, Ochrosia mariannensis</t>
@@ -204,35 +157,6 @@
   </si>
   <si>
     <t>Mammea odorata, Aglaia mariannensis, Meiogyne cylindrocarpa, Ochrosia oppositifolia</t>
-  </si>
-  <si>
-    <t>Mammea odorata, Ochrosia oppositifolia, Cycas micronesica, Meiogyne cylindrocarpa</t>
-  </si>
-  <si>
-    <r>
-      <t>8-12m (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cycas micronesica</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 3m)</t>
-    </r>
   </si>
   <si>
     <t>Few large, 50-cm-high boulders, &lt;20% exposed red soil, mostly 5-10cm-diameter rocks</t>
@@ -326,58 +250,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>10-18m, (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Cycas micronesica </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3m)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9-15m, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cycas micronesica</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;3m</t>
-    </r>
-  </si>
-  <si>
     <t>adult trees</t>
   </si>
   <si>
@@ -387,7 +259,76 @@
     <t>canopy cover</t>
   </si>
   <si>
-    <t>canopy height</t>
+    <t>trt</t>
+  </si>
+  <si>
+    <t>fenced</t>
+  </si>
+  <si>
+    <t>ungulate</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>DBH</t>
+  </si>
+  <si>
+    <t>Trt</t>
+  </si>
+  <si>
+    <t>Ungulate</t>
+  </si>
+  <si>
+    <t>Meiogyne cylindrocarpa</t>
+  </si>
+  <si>
+    <t>Aglaia mariannensis</t>
+  </si>
+  <si>
+    <t>Psychotria mariana</t>
+  </si>
+  <si>
+    <t>Cycas micronesica</t>
+  </si>
+  <si>
+    <t>Triphasia trifolia</t>
+  </si>
+  <si>
+    <t>Ochrosia oppositifolia, Algaia mariannensis, Triphasia trifolia</t>
+  </si>
+  <si>
+    <t>Mammea odorata</t>
+  </si>
+  <si>
+    <t>Aglaia mariannensis, Mammea odorata, Ochrosia oppositifolia</t>
+  </si>
+  <si>
+    <t>Macaranga thompsonii</t>
+  </si>
+  <si>
+    <t>Mammea odorata, Ochrosia oppositifolia, Cynometra ramiflora, Meiogyne cylindrocarpa</t>
+  </si>
+  <si>
+    <t>Cynometra ramiflora</t>
+  </si>
+  <si>
+    <t>Syzigium thompsonii</t>
+  </si>
+  <si>
+    <t>Morinda citrifolia</t>
+  </si>
+  <si>
+    <t>Ochrosia mariannensis</t>
+  </si>
+  <si>
+    <t>avg height</t>
+  </si>
+  <si>
+    <t>slight slope (&lt;5 degs) downward  towards NE, tower karst intermittent on all sides</t>
   </si>
 </sst>
 </file>
@@ -457,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -480,9 +421,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -495,6 +433,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -809,16 +756,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="13.6328125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="30.6328125" style="12" customWidth="1"/>
+    <col min="3" max="4" width="30.6328125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -827,30 +774,30 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="7">
         <v>0</v>
@@ -859,55 +806,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="7">
-        <v>6</v>
-      </c>
-      <c r="D4" s="7">
+    <row r="4" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0.82</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0.84</v>
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -915,514 +864,236 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="7">
-        <v>8</v>
-      </c>
-      <c r="D10" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="B11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0.85</v>
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7">
+        <v>7</v>
+      </c>
+      <c r="D13" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="D14" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="7">
-        <v>7</v>
-      </c>
-      <c r="D16" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="8">
-        <v>0.84</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0.84</v>
+      <c r="C17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
+      <c r="A18" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="B18" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="C21" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C22" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="8">
-        <v>0.73</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0.79</v>
+      <c r="C23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
+      <c r="A24" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="B24" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="7">
-        <v>13</v>
-      </c>
-      <c r="D28" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="8">
-        <v>0.85</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="7">
-        <v>0</v>
-      </c>
-      <c r="D33" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="7">
-        <v>8</v>
-      </c>
-      <c r="D34" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="8">
-        <v>0.76</v>
-      </c>
-      <c r="D35" s="8">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="7">
-        <v>0</v>
-      </c>
-      <c r="D39" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="D41" s="8">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="7">
-        <v>0</v>
-      </c>
-      <c r="D45" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="7">
-        <v>12</v>
-      </c>
-      <c r="D46" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="7">
-        <v>0.88</v>
-      </c>
-      <c r="D47" s="7">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>20</v>
+      <c r="C26" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1433,10 +1104,410 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.26953125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="9.90625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="7.26953125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" style="15" customWidth="1"/>
+    <col min="7" max="16384" width="16" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="14">
+        <v>6</v>
+      </c>
+      <c r="D2" s="16">
+        <f>AVERAGE('indiv trees'!E26:E31)</f>
+        <v>14.666666666666666</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0.82</v>
+      </c>
+      <c r="F2" s="16">
+        <f>AVERAGE('indiv trees'!D26:D31)</f>
+        <v>9.1666666666666661</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="15">
+        <v>7</v>
+      </c>
+      <c r="D3" s="16">
+        <f>AVERAGE('indiv trees'!E37:E43)</f>
+        <v>14.571428571428571</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F3" s="16">
+        <f>AVERAGE('indiv trees'!D37:D43)</f>
+        <v>8.7142857142857135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="15">
+        <v>6</v>
+      </c>
+      <c r="D4" s="16">
+        <f>AVERAGE('indiv trees'!E49:E54)</f>
+        <v>10</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0.84</v>
+      </c>
+      <c r="F4" s="16">
+        <f>AVERAGE('indiv trees'!D49:D53)</f>
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="15">
+        <v>7</v>
+      </c>
+      <c r="D5" s="16">
+        <f>AVERAGE('indiv trees'!E63:E69)</f>
+        <v>12</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="F5" s="16">
+        <f>AVERAGE('indiv trees'!D63:D69)</f>
+        <v>9.4285714285714288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="15">
+        <v>13</v>
+      </c>
+      <c r="D6" s="16">
+        <f>AVERAGE('indiv trees'!E81:E93)</f>
+        <v>8.2307692307692299</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0.85</v>
+      </c>
+      <c r="F6" s="16">
+        <f>AVERAGE('indiv trees'!D81:D93)</f>
+        <v>7.615384615384615</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="15">
+        <v>8</v>
+      </c>
+      <c r="D7" s="16">
+        <f>AVERAGE('indiv trees'!E102:E109)</f>
+        <v>6.125</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0.76</v>
+      </c>
+      <c r="F7" s="16">
+        <f>AVERAGE('indiv trees'!D102:D109)</f>
+        <v>6.875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="15">
+        <v>14</v>
+      </c>
+      <c r="D8" s="16">
+        <f>AVERAGE('indiv trees'!E2:E15)</f>
+        <v>4.9285714285714288</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F8" s="16">
+        <f>AVERAGE('indiv trees'!D2:D15)</f>
+        <v>6.2142857142857144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="15">
+        <v>12</v>
+      </c>
+      <c r="D9" s="16">
+        <f>AVERAGE('indiv trees'!E116:E127)</f>
+        <v>4</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0.88</v>
+      </c>
+      <c r="F9" s="16">
+        <f>AVERAGE('indiv trees'!D116:D127)</f>
+        <v>7.458333333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="15">
+        <v>5</v>
+      </c>
+      <c r="D10" s="16">
+        <f>AVERAGE('indiv trees'!E32:E36)</f>
+        <v>16.2</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0.84</v>
+      </c>
+      <c r="F10" s="16">
+        <f>AVERAGE('indiv trees'!D32:D36)</f>
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="15">
+        <v>5</v>
+      </c>
+      <c r="D11" s="16">
+        <f>AVERAGE('indiv trees'!E44:E48)</f>
+        <v>11.2</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0.85</v>
+      </c>
+      <c r="F11" s="16">
+        <f>AVERAGE('indiv trees'!D44:D48)</f>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="15">
+        <v>8</v>
+      </c>
+      <c r="D12" s="16">
+        <f>AVERAGE('indiv trees'!E55:E62)</f>
+        <v>19</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0.84</v>
+      </c>
+      <c r="F12" s="16">
+        <f>AVERAGE('indiv trees'!D55:D62)</f>
+        <v>11.0625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="15">
+        <v>11</v>
+      </c>
+      <c r="D13" s="16">
+        <f>AVERAGE('indiv trees'!E70:E80)</f>
+        <v>6.4545454545454541</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0.79</v>
+      </c>
+      <c r="F13" s="16">
+        <f>AVERAGE('indiv trees'!D63:D69)</f>
+        <v>9.4285714285714288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="15">
+        <v>6</v>
+      </c>
+      <c r="D14" s="16">
+        <f>AVERAGE('indiv trees'!E94:E101)</f>
+        <v>4.75</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0.82</v>
+      </c>
+      <c r="F14" s="16">
+        <f>AVERAGE('indiv trees'!D94:D101)</f>
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="15">
+        <v>6</v>
+      </c>
+      <c r="D15" s="16">
+        <f>AVERAGE('indiv trees'!E110:E115)</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0.74</v>
+      </c>
+      <c r="F15" s="16">
+        <f>AVERAGE('indiv trees'!D110:D115)</f>
+        <v>7.666666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="15">
+        <v>10</v>
+      </c>
+      <c r="D16" s="16">
+        <f>AVERAGE('indiv trees'!E2:E15)</f>
+        <v>4.9285714285714288</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F16" s="16">
+        <f>AVERAGE('indiv trees'!D16:D25)</f>
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="15">
+        <v>9</v>
+      </c>
+      <c r="D17" s="16">
+        <f>AVERAGE('indiv trees'!E128:E136)</f>
+        <v>4</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0.89</v>
+      </c>
+      <c r="F17" s="16">
+        <f>AVERAGE('indiv trees'!D128:D136)</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F18" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E136"/>
+  <sheetViews>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection sqref="A1:E136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1446,16 +1517,2311 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>6.5</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>7.5</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>6.5</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34">
+        <v>2.5</v>
+      </c>
+      <c r="E34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38">
+        <v>11</v>
+      </c>
+      <c r="E38">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39">
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40">
+        <v>11</v>
+      </c>
+      <c r="E40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
+      <c r="E46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47">
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48">
+        <v>9</v>
+      </c>
+      <c r="E48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49">
+        <v>13</v>
+      </c>
+      <c r="E49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50">
+        <v>12</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51">
+        <v>12</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53">
+        <v>6</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56">
+        <v>15</v>
+      </c>
+      <c r="E56">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57">
+        <v>14</v>
+      </c>
+      <c r="E57">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58">
+        <v>2.5</v>
+      </c>
+      <c r="E58">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="E59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="E60">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61">
+        <v>18</v>
+      </c>
+      <c r="E61">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62">
+        <v>15</v>
+      </c>
+      <c r="E62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63">
+        <v>13</v>
+      </c>
+      <c r="E63">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64">
+        <v>9</v>
+      </c>
+      <c r="E64">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D66">
+        <v>8</v>
+      </c>
+      <c r="E66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67">
+        <v>10</v>
+      </c>
+      <c r="E67">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68">
+        <v>15</v>
+      </c>
+      <c r="E68">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" t="s">
+        <v>56</v>
+      </c>
+      <c r="D69">
+        <v>6</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70" t="s">
+        <v>62</v>
+      </c>
+      <c r="D70">
+        <v>13</v>
+      </c>
+      <c r="E70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71">
+        <v>15</v>
+      </c>
+      <c r="E71">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72">
+        <v>12</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" t="s">
+        <v>62</v>
+      </c>
+      <c r="D73">
+        <v>12</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" t="s">
         <v>66</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D74">
+        <v>7</v>
+      </c>
+      <c r="E74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" t="s">
+        <v>56</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" t="s">
+        <v>56</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" t="s">
+        <v>56</v>
+      </c>
+      <c r="D77">
+        <v>8</v>
+      </c>
+      <c r="E77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78" t="s">
+        <v>56</v>
+      </c>
+      <c r="D78">
+        <v>7</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" t="s">
+        <v>56</v>
+      </c>
+      <c r="D79">
+        <v>7</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
+        <v>55</v>
+      </c>
+      <c r="C80" t="s">
+        <v>57</v>
+      </c>
+      <c r="D80">
+        <v>8</v>
+      </c>
+      <c r="E80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" t="s">
+        <v>57</v>
+      </c>
+      <c r="D81">
+        <v>15</v>
+      </c>
+      <c r="E81">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" t="s">
         <v>67</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D82">
+        <v>11</v>
+      </c>
+      <c r="E82">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" t="s">
+        <v>64</v>
+      </c>
+      <c r="D83">
+        <v>15</v>
+      </c>
+      <c r="E83">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" t="s">
+        <v>57</v>
+      </c>
+      <c r="D84">
+        <v>9</v>
+      </c>
+      <c r="E84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" t="s">
+        <v>66</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" t="s">
         <v>68</v>
+      </c>
+      <c r="D86">
+        <v>13</v>
+      </c>
+      <c r="E86">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" t="s">
+        <v>62</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" t="s">
+        <v>57</v>
+      </c>
+      <c r="D88">
+        <v>6</v>
+      </c>
+      <c r="E88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" t="s">
+        <v>57</v>
+      </c>
+      <c r="D89">
+        <v>6</v>
+      </c>
+      <c r="E89">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" t="s">
+        <v>66</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" t="s">
+        <v>66</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92">
+        <v>7</v>
+      </c>
+      <c r="E92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" t="s">
+        <v>56</v>
+      </c>
+      <c r="D93">
+        <v>6</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" t="s">
+        <v>55</v>
+      </c>
+      <c r="C94" t="s">
+        <v>57</v>
+      </c>
+      <c r="D94">
+        <v>10</v>
+      </c>
+      <c r="E94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" t="s">
+        <v>55</v>
+      </c>
+      <c r="C95" t="s">
+        <v>57</v>
+      </c>
+      <c r="D95">
+        <v>9</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>55</v>
+      </c>
+      <c r="C96" t="s">
+        <v>56</v>
+      </c>
+      <c r="D96">
+        <v>9</v>
+      </c>
+      <c r="E96">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" t="s">
+        <v>55</v>
+      </c>
+      <c r="C97" t="s">
+        <v>56</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>55</v>
+      </c>
+      <c r="C98" t="s">
+        <v>62</v>
+      </c>
+      <c r="D98">
+        <v>7</v>
+      </c>
+      <c r="E98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>55</v>
+      </c>
+      <c r="C99" t="s">
+        <v>56</v>
+      </c>
+      <c r="D99">
+        <v>8</v>
+      </c>
+      <c r="E99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100" t="s">
+        <v>57</v>
+      </c>
+      <c r="D100">
+        <v>8</v>
+      </c>
+      <c r="E100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" t="s">
+        <v>55</v>
+      </c>
+      <c r="C101" t="s">
+        <v>56</v>
+      </c>
+      <c r="D101">
+        <v>8</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" t="s">
+        <v>69</v>
+      </c>
+      <c r="D102">
+        <v>9</v>
+      </c>
+      <c r="E102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" t="s">
+        <v>69</v>
+      </c>
+      <c r="D103">
+        <v>8</v>
+      </c>
+      <c r="E103">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" t="s">
+        <v>56</v>
+      </c>
+      <c r="D104">
+        <v>7</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" t="s">
+        <v>56</v>
+      </c>
+      <c r="D105">
+        <v>7</v>
+      </c>
+      <c r="E105">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" t="s">
+        <v>56</v>
+      </c>
+      <c r="D106">
+        <v>5</v>
+      </c>
+      <c r="E106">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" t="s">
+        <v>56</v>
+      </c>
+      <c r="D107">
+        <v>6</v>
+      </c>
+      <c r="E107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" t="s">
+        <v>23</v>
+      </c>
+      <c r="D108">
+        <v>8</v>
+      </c>
+      <c r="E108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" t="s">
+        <v>56</v>
+      </c>
+      <c r="D109">
+        <v>5</v>
+      </c>
+      <c r="E109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" t="s">
+        <v>55</v>
+      </c>
+      <c r="C110" t="s">
+        <v>69</v>
+      </c>
+      <c r="D110">
+        <v>9</v>
+      </c>
+      <c r="E110">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111" t="s">
+        <v>55</v>
+      </c>
+      <c r="C111" t="s">
+        <v>69</v>
+      </c>
+      <c r="D111">
+        <v>9</v>
+      </c>
+      <c r="E111">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" t="s">
+        <v>55</v>
+      </c>
+      <c r="C112" t="s">
+        <v>56</v>
+      </c>
+      <c r="D112">
+        <v>7</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" t="s">
+        <v>55</v>
+      </c>
+      <c r="C113" t="s">
+        <v>64</v>
+      </c>
+      <c r="D113">
+        <v>8</v>
+      </c>
+      <c r="E113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" t="s">
+        <v>55</v>
+      </c>
+      <c r="C114" t="s">
+        <v>56</v>
+      </c>
+      <c r="D114">
+        <v>7</v>
+      </c>
+      <c r="E114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" t="s">
+        <v>55</v>
+      </c>
+      <c r="C115" t="s">
+        <v>56</v>
+      </c>
+      <c r="D115">
+        <v>6</v>
+      </c>
+      <c r="E115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116">
+        <v>8</v>
+      </c>
+      <c r="E116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" t="s">
+        <v>57</v>
+      </c>
+      <c r="D117">
+        <v>8</v>
+      </c>
+      <c r="E117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118">
+        <v>9</v>
+      </c>
+      <c r="E118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119">
+        <v>6</v>
+      </c>
+      <c r="E119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120">
+        <v>8</v>
+      </c>
+      <c r="E120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121">
+        <v>8</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>12</v>
+      </c>
+      <c r="B122" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122">
+        <v>6</v>
+      </c>
+      <c r="E122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123">
+        <v>10</v>
+      </c>
+      <c r="E123">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124">
+        <v>6</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" t="s">
+        <v>17</v>
+      </c>
+      <c r="D125">
+        <v>6</v>
+      </c>
+      <c r="E125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126">
+        <v>6.5</v>
+      </c>
+      <c r="E126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" t="s">
+        <v>57</v>
+      </c>
+      <c r="D127">
+        <v>8</v>
+      </c>
+      <c r="E127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" t="s">
+        <v>55</v>
+      </c>
+      <c r="C128" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128">
+        <v>6</v>
+      </c>
+      <c r="E128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" t="s">
+        <v>55</v>
+      </c>
+      <c r="C129" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129">
+        <v>6</v>
+      </c>
+      <c r="E129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130" t="s">
+        <v>55</v>
+      </c>
+      <c r="C130" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130">
+        <v>6</v>
+      </c>
+      <c r="E130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" t="s">
+        <v>55</v>
+      </c>
+      <c r="C131" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131">
+        <v>7</v>
+      </c>
+      <c r="E131">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" t="s">
+        <v>55</v>
+      </c>
+      <c r="C132" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132">
+        <v>8</v>
+      </c>
+      <c r="E132">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" t="s">
+        <v>55</v>
+      </c>
+      <c r="C133" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133">
+        <v>6</v>
+      </c>
+      <c r="E133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" t="s">
+        <v>55</v>
+      </c>
+      <c r="C134" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134">
+        <v>7.5</v>
+      </c>
+      <c r="E134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" t="s">
+        <v>55</v>
+      </c>
+      <c r="C135" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135">
+        <v>8.5</v>
+      </c>
+      <c r="E135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" t="s">
+        <v>55</v>
+      </c>
+      <c r="C136" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136">
+        <v>5</v>
+      </c>
+      <c r="E136">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
